--- a/Version/ddjr.xlsx
+++ b/Version/ddjr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xiangfa_Appium_Automated_Testing\Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\测试部\版本归档\版本归档\移动项目\Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>登录</t>
   </si>
   <si>
-    <t>13063835945,123456</t>
-  </si>
-  <si>
     <t>登录成功跳转到“我的”功能页面</t>
   </si>
   <si>
@@ -124,10 +121,6 @@
   </si>
   <si>
     <t>车辆信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456,11111111,22222222,12360,22,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -376,6 +369,37 @@
       </rPr>
       <t>helloworld</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5135105272</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,123456</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111111,22222222,12360,22,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1325,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1411,17 +1435,17 @@
         <v>24</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1431,29 +1455,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1463,27 +1487,27 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1493,29 +1517,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="4"/>
@@ -1525,29 +1549,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="4"/>
@@ -1557,29 +1581,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="14"/>
@@ -1589,27 +1613,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="14"/>
@@ -1619,29 +1643,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="14"/>
@@ -1651,29 +1675,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="14"/>
